--- a/output/fit_clients/fit_round_36.xlsx
+++ b/output/fit_clients/fit_round_36.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>7450998173.137939</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003772494197543939</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
         <v>9</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.1818094847921561</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.397558918366324</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.2808044038012132</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.397558918366324</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>6027947650.296411</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.003798831715944716</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.9418115517180142</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.049280993766513</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.164120850662936</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-3.049280993766513</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5680440904.230013</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003515759097726704</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.148932145923044</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9884826099067289</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-5.148932145923044</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4038744468.086762</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003953792126674923</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.047307597774749</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8121489854512712</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.047307597774749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6974861656.585422</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002715785871111123</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>13</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.8605598332340321</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.674889276456379</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.047324677288561</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.674889276456379</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>9090047727.114666</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001043897621046278</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.031824261550115</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9546133738899879</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-4.031824261550115</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6072982461.666376</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.00339339388793262</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.971428150772673</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9492265655188906</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.971428150772673</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5614001648.713267</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005401031888508475</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.9361894527386303</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.38880403299401</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.166834841381417</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-4.38880403299401</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3414363605.016824</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004725625769237451</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.164607948140338</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.045843869788198</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.2120502299771439</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-3.045843869788198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4814222569.718677</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001326973249325102</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.744016483695269</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7359067418299586</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.744016483695269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>9006126679.770088</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001864627181087297</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.155106569120315</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9997424836156682</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.155106569120315</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5491464741.730814</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003950965190985767</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.043295406763956</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.013829555194312</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-3.043295406763956</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>8057705706.637505</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.00345489806097516</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.452977891726326</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8795943216457083</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.452977891726326</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>5336667739.449396</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.005670610735838698</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.187152555013035</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9265770450818259</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.187152555013035</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6897332325.931318</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.00508305746190989</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.531113793201867</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.8980557653199784</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.531113793201867</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>7029303714.473081</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002380081766861831</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.982070256612654</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9503063700046191</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-3.982070256612654</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5512843071.448587</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0008265407397018687</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>6.269574237991986</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9817602376214102</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-6.269574237991986</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3281917091.806817</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001590905209548355</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.932659861683708</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8671139272754548</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.932659861683708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4753600095.946166</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.00102931138594199</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6839897014825446</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.662009846388584</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8767580864960447</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.662009846388584</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>7853569477.522931</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.00568357571892196</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.240770119613194</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8376882604162952</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.240770119613194</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>6242316169.297749</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.005292918457095824</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>5.295560052486408</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8832836171748838</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-5.295560052486408</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>6526956865.214156</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001572829924673782</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>11</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.734190371895387</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8351312296267626</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.734190371895387</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7357681599.400067</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004991398641586813</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>7</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.569071984580908</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.977873316487301</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.569071984580908</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6052916436.920417</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003261282018469087</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>6</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.785158705889049</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9289766810777189</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.785158705889049</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>3757424896.65162</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001314120157387933</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>10</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.7711161999677169</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.758192717969522</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.9300809390161298</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.758192717969522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>6951647581.740388</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003287207055714942</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.098992906920324</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9036506935619836</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-3.098992906920324</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>8115826941.418832</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.00576922075671053</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.488915238282746</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8980557653199784</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.488915238282746</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7390992588.749009</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001278624484530942</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4.168067080980251</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9946001269973714</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-4.168067080980251</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>6662583984.77685</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003937663329379493</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>8</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.120493564699376</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8766246396969671</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.120493564699376</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7142607517.711852</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002385774959738373</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>8</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.3204632823096454</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.32364106315088</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.6138817380989577</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.32364106315088</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4299276555.537435</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001075744499551481</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>6</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590732</v>
-      </c>
-      <c r="L32" t="n">
-        <v>4.011906656031377</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9443057834039341</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-4.011906656031377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5199528251.727019</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.0026968056244329</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>6</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.818902245100118</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8408996586745952</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.818902245100118</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>7731556819.416602</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.005837871582787028</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>5.33886292084259</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8194390560544903</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-5.33886292084259</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5710552151.87469</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001730849034796116</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>4.056761855293304</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.95138494893283</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-4.056761855293304</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>6998122579.200047</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003782928108243849</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>7</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.45871708463714</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.006810657604378</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.45871708463714</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>5073094215.681257</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005831380490178046</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>9</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.248290755128515</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.9902901144313452</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.248290755128515</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4125374231.472157</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004013564230451123</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>7</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.380290660990142</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9048817064853597</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-3.380290660990142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5017873037.646599</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002834545968493631</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>6</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.919317518026559</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8625731686536882</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.919317518026559</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>4835475491.628405</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003729725175416396</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>7</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.652421248292123</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9799686073885265</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.652421248292123</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>4955908337.077662</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001405001154782597</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>6</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.745807811834169</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9223290784089859</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.745807811834169</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6488848648.955773</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.00478624255241116</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.960624323250044</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.003837402313888</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-3.960624323250044</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>4957103637.08208</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003653466851510242</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>6</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.844467401427334</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9300799955760478</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.844467401427334</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6155849124.563016</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002246928605665578</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>9</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.195097087013237</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9205169410410462</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-3.195097087013237</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4151187455.817959</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001316409057280412</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>8</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.533158581450294</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9343864791063575</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.533158581450294</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>10319316718.44525</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.005038965152744753</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>8</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.275470974545622</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8097276880363112</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.275470974545622</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8983908323.316036</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002303084759926523</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>6</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.924969941783127</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.641977541846726</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.158129680219026</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.641977541846726</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5596242121.063055</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002488891686117368</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>5.239788100108096</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9770033285807048</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-5.239788100108096</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5939433424.898441</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.003789103354753448</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>8</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.382466107544785</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8719324871717808</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.382466107544785</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>5889293057.193113</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002911991165412102</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.264649624747253</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.031137762784319</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.264649624747253</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4969350902.369328</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004030504946386289</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>8</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.3181181030841</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9485476829006287</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-3.3181181030841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6533305685.643121</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001863503204036636</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>7</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.394739225941649</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8463183168899786</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-3.394739225941649</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>6973136819.483271</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003171441877310059</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>8</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.265398034839288</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9008575729824072</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.265398034839288</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5807993218.58149</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.005340085264893337</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
         <v>9</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.994961167843797</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8278361118982063</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.994961167843797</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>9119588090.029209</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003245174304207095</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>8</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.9004198661767387</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3.24143451444542</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.138966564395808</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-3.24143451444542</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>6194697385.00355</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002930237196021669</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>6</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.760529624228352</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9189872449196818</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.760529624228352</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8675375394.371052</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.004347442784934017</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3.68231184122391</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8408996586745952</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-3.68231184122391</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>4687734273.062842</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002880740241195679</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>11</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.650779311850892</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7726183311662398</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.650779311850892</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>6832157088.75657</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003506516120526691</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>9</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.037267551977602</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8570528621925007</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.037267551977602</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>3943317344.791678</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.00419415161310652</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>6</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.602895071789078</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8518053496076186</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-3.602895071789078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6943336888.30476</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.003808832597203172</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>9</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.746802475596679</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9359846031466056</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.746802475596679</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5835367398.116543</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003602096591424793</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>8</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.831622386329155</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8553072685308035</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.831622386329155</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7605871701.657193</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004321265727848067</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
         <v>8</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3.21255940597378</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.911045819078744</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-3.21255940597378</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4893749045.017728</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004820673824591406</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.9467146275836715</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.02229872821073</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1.167491734672307</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.02229872821073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>7654886735.968671</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005770391472044517</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>5</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>4.51343075933116</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.033040237181858</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-4.51343075933116</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4454142886.554601</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003094277566530263</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>8</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.286645465688702</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8859343950882461</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.286645465688702</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>7278814822.527488</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.005448230523804181</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>6.405466979531431</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9379536622921113</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-6.405466979531431</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>7551502200.425199</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002108699198823396</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>6</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.59157718675907</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.764228228270198</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-3.59157718675907</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5564775454.665052</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001059728446166366</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
         <v>6</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.79769497056124</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9657825305219937</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.79769497056124</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>7060478478.883891</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003943512743160145</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>6.008456106345823</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9307723481718707</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-6.008456106345823</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3621868484.953932</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003197978613435775</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>5</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>4.015945908340914</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8155683855211262</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-4.015945908340914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>5579550608.671017</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002274699735373378</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>6</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3.721728775634522</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.060915439425217</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-3.721728775634522</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>6390140755.625211</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001233462783344489</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>5</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>4.04422026170614</v>
-      </c>
-      <c r="M73" t="n">
-        <v>-0.3726779962499649</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-4.04422026170614</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5334163566.180558</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003453528598175958</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
         <v>8</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.186501603688626</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8529057833269096</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.186501603688626</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6296631242.658002</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.004056172913712843</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>10</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.9527506109458264</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.00966084839646</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1.102029543728187</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.00966084839646</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>5569562521.30162</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.0030530621674321</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>8</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3.339574130260358</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.91889191625176</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-3.339574130260358</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5102481949.7798</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005016387160660272</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.231373678268919</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.013076922310264</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-5.231373678268919</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7196631770.958289</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004656097411940269</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
         <v>7</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>3.498773158445964</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9206121014389288</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-3.498773158445964</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6807923050.374948</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002105193317198625</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.443912494320942</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9743305867672638</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.443912494320942</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7877903937.158506</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002190427314703457</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>8</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.2005789529477479</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.547570958251483</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.3968232119040766</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.547570958251483</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7611127184.936755</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.005035385686825988</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>5.117938334174805</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9967481445001829</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-5.117938334174805</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>8548408103.614769</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.003655871768150698</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>4</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.8509118651513747</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>4.59986724389369</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.139743708902869</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-4.59986724389369</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>8750074681.183502</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003045194704141342</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>15</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.8381352038911567</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.353271967769433</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.9376167866318595</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.353271967769433</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>6626333440.835823</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004257243401630855</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
         <v>9</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>3.048195225825945</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9359846031466056</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-3.048195225825945</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4315262409.499297</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003487260595528499</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>9</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>3.015540543781564</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8979582145357415</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-3.015540543781564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8460789741.322672</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002644189982375757</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>9</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307498</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.338568612453936</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9629876852492425</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.338568612453936</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4292688328.7176</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001120592478512554</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>11</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.2420275259987409</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764211</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.783969374925468</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.4139401171995994</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.783969374925468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8832790753.268812</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004739636039000887</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
         <v>9</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>3.008334524269565</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8077714040554177</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-3.008334524269565</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>6318459998.527864</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003832817910826888</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>9</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.180466498999009</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9081789871568948</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.180466498999009</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>4711708054.2258</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002659557767381555</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>9</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>3.004386972498521</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9059176697383645</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-3.004386972498521</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5177046886.245476</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003241991774611633</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>6.184662735594132</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8675179382375932</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-6.184662735594132</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4123028788.598057</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.002661128286686939</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>8</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.3781831441780621</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.323952756231539</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0.7474182974356526</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.323952756231539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7051561663.307715</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001570585430904589</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>7</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.479390949758127</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.927272013178013</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.479390949758127</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>7355816494.783747</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.00106551355964689</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.08381201535031656</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>5.244512768548145</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.2790365823401517</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-5.244512768548145</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7077617247.247338</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002786323749080236</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.996846815914235</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9328795259401277</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.996846815914235</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>8316826997.723913</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002633680227207274</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>11</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.849728355818357</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.8875210616198775</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.849728355818357</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>5641830729.465895</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004367700674252984</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>4.20396648564214</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9151208788816911</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-4.20396648564214</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>7994505354.788377</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.005206252788201722</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>6</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.541513276072304</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8708560963633635</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.541513276072304</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2400744242.396084</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004031295338142462</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>8</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="L99" t="n">
-        <v>3.298978137108348</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8974357883693133</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-3.298978137108348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5541166554.514264</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002781962518869814</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.608952560419492</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.182155477520466</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.7969615341576755</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.182155477520466</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>6505546529.995699</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001354455455539006</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>8</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.53503646386649</v>
-      </c>
-      <c r="M101" t="n">
-        <v>1.189438110407002</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-3.53503646386649</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_36.xlsx
+++ b/output/fit_clients/fit_round_36.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>7450998173.137939</v>
+        <v>2112203493.269151</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003772494197543939</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+        <v>0.08444849335749935</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03983326134630326</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1056101757.185635</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>6027947650.296411</v>
+        <v>2307841040.588353</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003798831715944716</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+        <v>0.1795076814330714</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03613024196342127</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1153920607.853793</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5680440904.230013</v>
+        <v>4381205146.377759</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003515759097726704</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+        <v>0.1426777957702414</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02397915196824063</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2190602614.201036</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4038744468.086762</v>
+        <v>2668871380.463736</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003953792126674923</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.09787125900708415</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04498165847242595</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1334435781.758123</v>
       </c>
     </row>
     <row r="6">
@@ -595,19 +629,25 @@
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>6974861656.585422</v>
+        <v>1915309679.023816</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002715785871111123</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+        <v>0.1305257803526477</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05554634263743554</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>957654878.0919886</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>9090047727.114666</v>
+        <v>2186563677.564843</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001043897621046278</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>11</v>
+        <v>0.07250419197481282</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0433259005995101</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1093281881.817821</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>497</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2520879525.585547</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1700353761655469</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03234946508681557</v>
+      </c>
+      <c r="H8" t="b">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
-        <v>513</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6072982461.666376</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.00339339388793262</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
+      <c r="I8" t="n">
+        <v>11</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1260439771.17713</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5614001648.713267</v>
+        <v>2167575211.575359</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005401031888508475</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>11</v>
+        <v>0.1457716196249477</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03133750530075121</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1083787608.94283</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3414363605.016824</v>
+        <v>5120343144.101318</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004725625769237451</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.2026117399252824</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04684209382743584</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2560171680.512187</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4814222569.718677</v>
+        <v>3124580804.289866</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001326973249325102</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1910804797575045</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03989017790138523</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1562290353.590671</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>9006126679.770088</v>
+        <v>2697248630.113081</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001864627181087297</v>
-      </c>
-      <c r="G12" t="b">
+        <v>0.1911249829331214</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04496847343090057</v>
+      </c>
+      <c r="H12" t="b">
         <v>1</v>
       </c>
-      <c r="H12" t="n">
-        <v>10</v>
+      <c r="I12" t="n">
+        <v>12</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1348624305.167997</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5491464741.730814</v>
+        <v>3433605969.512009</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003950965190985767</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
+        <v>0.07868003383634094</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02613071203060012</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>13</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1716803068.28166</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>498</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3829787147.072128</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1243199734553225</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.02885485264722267</v>
+      </c>
+      <c r="H14" t="b">
         <v>1</v>
       </c>
-      <c r="D14" t="n">
-        <v>486</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8057705706.637505</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.00345489806097516</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
+      <c r="I14" t="n">
+        <v>11</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1914893547.702179</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>5336667739.449396</v>
+        <v>1327099754.102737</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005670610735838698</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>12</v>
+        <v>0.06890365215790996</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04147563928947507</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>663549923.1875505</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6897332325.931318</v>
+        <v>2377727361.223295</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00508305746190989</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>12</v>
+        <v>0.09881568491455046</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04600121121551453</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1188863722.174635</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>7029303714.473081</v>
+        <v>4965790752.445931</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002380081766861831</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
+        <v>0.1698439566189305</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.040566545164431</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>10</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2482895362.935153</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5512843071.448587</v>
+        <v>3885530759.3032</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008265407397018687</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
+        <v>0.1576147391219446</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03233163008030875</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>12</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1942765345.645959</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3281917091.806817</v>
+        <v>1362350109.146721</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001590905209548355</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1232044234630407</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02234682491975107</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>681175171.8365465</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4753600095.946166</v>
+        <v>2158851320.471405</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00102931138594199</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1214278852694147</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02449071516401672</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1079425669.495959</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>7853569477.522931</v>
+        <v>2390819653.870087</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00568357571892196</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
+        <v>0.07551238676093307</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03695503224804673</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1195409825.361448</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>6242316169.297749</v>
+        <v>2508248776.382109</v>
       </c>
       <c r="F22" t="n">
-        <v>0.005292918457095824</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
+        <v>0.1318457983391058</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05733158247998641</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1254124479.002899</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>6526956865.214156</v>
+        <v>1216909179.276906</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001572829924673782</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
+        <v>0.1487306960206718</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04924847741105135</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>608454623.1036085</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7357681599.400067</v>
+        <v>3651695879.462611</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004991398641586813</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>11</v>
+        <v>0.1272257720469378</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03228877230728096</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>10</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1825847930.974193</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6052916436.920417</v>
+        <v>1083840433.612802</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003261282018469087</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
+        <v>0.1209624073075477</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02962187204390582</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>541920261.3396217</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>3757424896.65162</v>
+        <v>1364492429.632323</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001314120157387933</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.08621711622007662</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02947377468362685</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>682246275.9735403</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>6951647581.740388</v>
+        <v>3110635796.9409</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003287207055714942</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
+        <v>0.1285879528391499</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0245344648171415</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>8</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1555317952.6414</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>8115826941.418832</v>
+        <v>3581288899.331585</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00576922075671053</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
+        <v>0.1010323050147773</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04985763116424594</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1790644511.155141</v>
       </c>
     </row>
     <row r="29">
@@ -1239,19 +1411,25 @@
         <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7390992588.749009</v>
+        <v>5474083281.964203</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001278624484530942</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
+        <v>0.09121640717622881</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04523244116525928</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>17</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2737041555.398267</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>6662583984.77685</v>
+        <v>1478994860.115409</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003937663329379493</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>11</v>
+        <v>0.1067575029179934</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03409524479410211</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>739497407.9897842</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7142607517.711852</v>
+        <v>1265197048.792512</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002385774959738373</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>7</v>
+        <v>0.08954759050656069</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04071508963571087</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>632598460.3456782</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4299276555.537435</v>
+        <v>1377082774.42545</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001075744499551481</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.09736840469686553</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02495124955047469</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>688541429.9388344</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5199528251.727019</v>
+        <v>1897807954.824534</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0026968056244329</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
+        <v>0.19354127078571</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04546354063063986</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>11</v>
+      </c>
+      <c r="J33" t="n">
+        <v>948904066.6991193</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>7731556819.416602</v>
+        <v>1444290589.982713</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005837871582787028</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>11</v>
+        <v>0.1172052237995759</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02196524944274582</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>722145259.7670575</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5710552151.87469</v>
+        <v>1117930321.947231</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001730849034796116</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
+        <v>0.1077551015692422</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04396435355125269</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>558965153.509842</v>
       </c>
     </row>
     <row r="36">
@@ -1435,19 +1649,25 @@
         <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>6998122579.200047</v>
+        <v>2444038199.11924</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003782928108243849</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
+        <v>0.1389651648217847</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0285007263822666</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1222019125.853507</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>5073094215.681257</v>
+        <v>2711406709.077979</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005831380490178046</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>10</v>
+        <v>0.08349533512188208</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.04054039119251446</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>8</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1355703479.508896</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4125374231.472157</v>
+        <v>1363439527.603321</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004013564230451123</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.09165199053503682</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03294927572404671</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>681719832.1411467</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5017873037.646599</v>
+        <v>1339673589.08485</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002834545968493631</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>3</v>
+        <v>0.1539534111379476</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02084715900294334</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>669836889.1035757</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>4835475491.628405</v>
+        <v>1482841235.769612</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003729725175416396</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
+        <v>0.1188751069786384</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05111325255838067</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>741420588.2154117</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>506</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2509938674.807501</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.1006446802279414</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03399782947376472</v>
+      </c>
+      <c r="H41" t="b">
         <v>1</v>
       </c>
-      <c r="D41" t="n">
-        <v>540</v>
-      </c>
-      <c r="E41" t="n">
-        <v>4955908337.077662</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.001405001154782597</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>10</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1254969361.508783</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6488848648.955773</v>
+        <v>3421045536.85921</v>
       </c>
       <c r="F42" t="n">
-        <v>0.00478624255241116</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>8</v>
+        <v>0.08853048438650295</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04544915376636543</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>12</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1710522757.648802</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>4957103637.08208</v>
+        <v>2558955838.702039</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003653466851510242</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>8</v>
+        <v>0.1896814396154139</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01682260491460508</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>11</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1279477961.896309</v>
       </c>
     </row>
     <row r="44">
@@ -1659,19 +1921,25 @@
         <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6155849124.563016</v>
+        <v>2195113649.082941</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002246928605665578</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>10</v>
+        <v>0.07666329318519532</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02877498611023244</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1097556969.634988</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4151187455.817959</v>
+        <v>2096849126.637045</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001316409057280412</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1635636351349285</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0419266383420407</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1048424563.787757</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>10319316718.44525</v>
+        <v>3797989003.917824</v>
       </c>
       <c r="F46" t="n">
-        <v>0.005038965152744753</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>6</v>
+        <v>0.119606450300537</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05957499129415857</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>13</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1898994459.77559</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8983908323.316036</v>
+        <v>4065218129.012373</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002303084759926523</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" t="n">
-        <v>5</v>
+        <v>0.1670955308324628</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04911979788884454</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>10</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2032609067.149973</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>5596242121.063055</v>
+        <v>4140575360.794825</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002488891686117368</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>6</v>
+        <v>0.07458634639014318</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02723913343966682</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>12</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2070287706.43844</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5939433424.898441</v>
+        <v>1911274689.900927</v>
       </c>
       <c r="F49" t="n">
-        <v>0.003789103354753448</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1962498299814153</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.04232101431736694</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>955637312.7967689</v>
       </c>
     </row>
     <row r="50">
@@ -1827,19 +2125,25 @@
         <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>5889293057.193113</v>
+        <v>3517569311.311294</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002911991165412102</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
+        <v>0.1616023974557833</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03528599274744703</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>12</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1758784678.465461</v>
       </c>
     </row>
     <row r="51">
@@ -1855,19 +2159,25 @@
         <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4969350902.369328</v>
+        <v>1189659177.550906</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004030504946386289</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.153536485988443</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.049011803346839</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>594829641.8394488</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>6533305685.643121</v>
+        <v>5005469376.874131</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001863503204036636</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>9</v>
+        <v>0.1331655350863728</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04245918046688271</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>15</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2502734685.572829</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>6973136819.483271</v>
+        <v>2442273917.42079</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003171441877310059</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>7</v>
+        <v>0.184011525170803</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03030487435724195</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>10</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1221137029.495611</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5807993218.58149</v>
+        <v>3447654607.468563</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005340085264893337</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>9</v>
+        <v>0.1500926187802816</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03604732654497448</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>12</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1723827324.276201</v>
       </c>
     </row>
     <row r="55">
@@ -1967,19 +2295,25 @@
         <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>9119588090.029209</v>
+        <v>4315167422.151011</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003245174304207095</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>12</v>
+        <v>0.1527246501360208</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02579819118351217</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>9</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2157583699.699612</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>6194697385.00355</v>
+        <v>1801538821.40817</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002930237196021669</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>5</v>
+        <v>0.1567374072225145</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.03613679383196493</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>900769408.1600573</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>8675375394.371052</v>
+        <v>4095670889.800284</v>
       </c>
       <c r="F57" t="n">
-        <v>0.004347442784934017</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>9</v>
+        <v>0.1389844517729137</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02570239519796273</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>11</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2047835541.136975</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>4687734273.062842</v>
+        <v>1901324898.663214</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002880740241195679</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>7</v>
+        <v>0.1298345298179375</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02530947000789976</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>950662443.7103683</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>6832157088.75657</v>
+        <v>4758356747.376398</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003506516120526691</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>4</v>
+        <v>0.1146962013217833</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04275887912781566</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>10</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2379178312.892627</v>
       </c>
     </row>
     <row r="60">
@@ -2107,19 +2465,25 @@
         <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3943317344.791678</v>
+        <v>2330623997.69427</v>
       </c>
       <c r="F60" t="n">
-        <v>0.00419415161310652</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1693408020227759</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02443699365835668</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>11</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1165311998.836916</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>6943336888.30476</v>
+        <v>2287765944.125107</v>
       </c>
       <c r="F61" t="n">
-        <v>0.003808832597203172</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>8</v>
+        <v>0.1686333035308837</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02894007274244311</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1143883019.524159</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5835367398.116543</v>
+        <v>1443878840.851869</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003602096591424793</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>7</v>
+        <v>0.1187767568219613</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04230174681404838</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>721939394.8655221</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7605871701.657193</v>
+        <v>4682402766.462275</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004321265727848067</v>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>8</v>
+        <v>0.09018829441973708</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03660152464168732</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>10</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2341201414.970598</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4893749045.017728</v>
+        <v>3552614447.390428</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004820673824591406</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1367603778659083</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02342231663834351</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>11</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1776307227.911491</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>7654886735.968671</v>
+        <v>4679857028.118013</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005770391472044517</v>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>9</v>
+        <v>0.1158316031466143</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02994958931783098</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>13</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2339928491.91681</v>
       </c>
     </row>
     <row r="66">
@@ -2275,19 +2669,25 @@
         <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4454142886.554601</v>
+        <v>3444498109.595321</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003094277566530263</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>7</v>
+        <v>0.162958967443868</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03400037745362759</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>10</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1722248998.369126</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>7278814822.527488</v>
+        <v>2191451951.683144</v>
       </c>
       <c r="F67" t="n">
-        <v>0.005448230523804181</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>7</v>
+        <v>0.09539954662862406</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03558415287484767</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1095726062.322529</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>7551502200.425199</v>
+        <v>5812665749.487516</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002108699198823396</v>
-      </c>
-      <c r="G68" t="b">
+        <v>0.1427551615814699</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04546070671631704</v>
+      </c>
+      <c r="H68" t="b">
         <v>1</v>
       </c>
-      <c r="H68" t="n">
-        <v>7</v>
+      <c r="I68" t="n">
+        <v>11</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2906332980.183442</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5564775454.665052</v>
+        <v>1709251906.168608</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001059728446166366</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>6</v>
+        <v>0.172042363810115</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04860313188986645</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>854625920.2459793</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>7060478478.883891</v>
+        <v>3556451446.701022</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003943512743160145</v>
-      </c>
-      <c r="G70" t="b">
+        <v>0.09808823403454042</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03093614710488941</v>
+      </c>
+      <c r="H70" t="b">
         <v>1</v>
       </c>
-      <c r="H70" t="n">
-        <v>8</v>
+      <c r="I70" t="n">
+        <v>10</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1778225736.369253</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3621868484.953932</v>
+        <v>4031699930.588423</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003197978613435775</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1133013099375187</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02392976074840683</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>13</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2015849998.546837</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>5579550608.671017</v>
+        <v>2144774093.674193</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002274699735373378</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>7</v>
+        <v>0.08051550033304694</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03871979361172306</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1072386969.642455</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>6390140755.625211</v>
+        <v>3545223557.724282</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001233462783344489</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>8</v>
+        <v>0.08138289714855479</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03625822028141381</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>14</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1772611724.765845</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5334163566.180558</v>
+        <v>2925899436.565364</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003453528598175958</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>8</v>
+        <v>0.1276822845758083</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0338710057732587</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>12</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1462949789.918968</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6296631242.658002</v>
+        <v>1520477745.041451</v>
       </c>
       <c r="F75" t="n">
-        <v>0.004056172913712843</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>7</v>
+        <v>0.1372136927847635</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02645223794540048</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>760238881.5118586</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5569562521.30162</v>
+        <v>5060891360.670753</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0030530621674321</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>7</v>
+        <v>0.0826793850369648</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.03248822827329763</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>8</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2530445709.342758</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5102481949.7798</v>
+        <v>1848394479.812205</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005016387160660272</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>13</v>
+        <v>0.1262377466313339</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02380868833653346</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>924197278.8652797</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7196631770.958289</v>
+        <v>4111655834.128797</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004656097411940269</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>7</v>
+        <v>0.1335222412375003</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.03723707631760551</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>13</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2055827874.605871</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6807923050.374948</v>
+        <v>1893334636.510921</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002105193317198625</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>8</v>
+        <v>0.1287779965378808</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03232868658077392</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>946667421.075738</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7877903937.158506</v>
+        <v>5226667530.696388</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002190427314703457</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>13</v>
+        <v>0.1110226460507843</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02510528270911744</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>7</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2613333825.627961</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7611127184.936755</v>
+        <v>4218201822.272866</v>
       </c>
       <c r="F81" t="n">
-        <v>0.005035385686825988</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>6</v>
+        <v>0.08796826647264713</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02536536139090248</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>8</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2109100882.279041</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>8548408103.614769</v>
+        <v>5035533226.580269</v>
       </c>
       <c r="F82" t="n">
-        <v>0.003655871768150698</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>7</v>
+        <v>0.1644132928952737</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01854106210609619</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>13</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2517766595.099631</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>8750074681.183502</v>
+        <v>2383004557.49916</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003045194704141342</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>10</v>
+        <v>0.1333075186114089</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.04078952716529975</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1191502311.575991</v>
       </c>
     </row>
     <row r="84">
@@ -2779,19 +3281,25 @@
         <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>6626333440.835823</v>
+        <v>1678061152.583951</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004257243401630855</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>9</v>
+        <v>0.103927591840398</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04149712414821598</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>839030628.286388</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4315262409.499297</v>
+        <v>2359018528.471997</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003487260595528499</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1618329892415373</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.0405381735174791</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>14</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1179509253.442404</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>8460789741.322672</v>
+        <v>2425307760.187669</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002644189982375757</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>10</v>
+        <v>0.1122757320547225</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0254401870843899</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1212653966.659882</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4292688328.7176</v>
+        <v>1318589054.644349</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001120592478512554</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.158758599846591</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03981271514623552</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>659294613.1265359</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8832790753.268812</v>
+        <v>2372553383.536062</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004739636039000887</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>9</v>
+        <v>0.12392942244656</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02719233087426435</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>14</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1186276660.023705</v>
       </c>
     </row>
     <row r="89">
@@ -2919,19 +3451,25 @@
         <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>6318459998.527864</v>
+        <v>3296926794.614679</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003832817910826888</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>8</v>
+        <v>0.130832151683586</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03948302707151213</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>12</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1648463413.455491</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>4711708054.2258</v>
+        <v>1390036595.559378</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002659557767381555</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>6</v>
+        <v>0.09583413767631829</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.03897702788912426</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>695018256.1630781</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5177046886.245476</v>
+        <v>1706100206.781786</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003241991774611633</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>11</v>
+        <v>0.152213630840868</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04510071593066864</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>853050114.6553481</v>
       </c>
     </row>
     <row r="92">
@@ -3003,19 +3553,25 @@
         <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4123028788.598057</v>
+        <v>2000582589.225648</v>
       </c>
       <c r="F92" t="n">
-        <v>0.002661128286686939</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.1081519047526958</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03313324800132388</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>10</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1000291240.617327</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7051561663.307715</v>
+        <v>4630299395.126237</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001570585430904589</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>12</v>
+        <v>0.1111854773916524</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.05151326185898222</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>11</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2315149657.265924</v>
       </c>
     </row>
     <row r="94">
@@ -3059,19 +3621,25 @@
         <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>7355816494.783747</v>
+        <v>2026155475.837893</v>
       </c>
       <c r="F94" t="n">
-        <v>0.00106551355964689</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>12</v>
+        <v>0.1633800757779517</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03756158210887649</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1013077739.493216</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7077617247.247338</v>
+        <v>3260577230.094882</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002786323749080236</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>9</v>
+        <v>0.1081491627916416</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04988674642646242</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>8</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1630288595.672756</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>8316826997.723913</v>
+        <v>1607065296.061391</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002633680227207274</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>10</v>
+        <v>0.119272036114077</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03006390793871139</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>803532676.7750477</v>
       </c>
     </row>
     <row r="97">
@@ -3143,19 +3723,25 @@
         <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5641830729.465895</v>
+        <v>4459680651.171115</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004367700674252984</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>9</v>
+        <v>0.1077516636279443</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02241689943823765</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>11</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2229840418.7435</v>
       </c>
     </row>
     <row r="98">
@@ -3171,19 +3757,25 @@
         <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>7994505354.788377</v>
+        <v>2460449977.313795</v>
       </c>
       <c r="F98" t="n">
-        <v>0.005206252788201722</v>
-      </c>
-      <c r="G98" t="b">
+        <v>0.0914882701605239</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02718547861003283</v>
+      </c>
+      <c r="H98" t="b">
         <v>1</v>
       </c>
-      <c r="H98" t="n">
-        <v>13</v>
+      <c r="I98" t="n">
+        <v>9</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1230224936.557108</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2400744242.396084</v>
+        <v>3303535286.205485</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004031295338142462</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1332049576137566</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02984115680212345</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>11</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1651767650.934604</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5541166554.514264</v>
+        <v>3490085581.53974</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002781962518869814</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
+        <v>0.122878917828948</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.0265045101693555</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>11</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1745042820.546358</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
+        <v>4</v>
+      </c>
+      <c r="D101" t="n">
+        <v>584</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3391345422.764696</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.2110618219168562</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04890275190719764</v>
+      </c>
+      <c r="H101" t="b">
         <v>1</v>
       </c>
-      <c r="D101" t="n">
-        <v>573</v>
-      </c>
-      <c r="E101" t="n">
-        <v>6505546529.995699</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.001354455455539006</v>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="n">
-        <v>11</v>
+      <c r="I101" t="n">
+        <v>15</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1695672851.975075</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_36.xlsx
+++ b/output/fit_clients/fit_round_36.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2112203493.269151</v>
+        <v>2334542157.270762</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08444849335749935</v>
+        <v>0.08792309738499009</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03983326134630326</v>
+        <v>0.03911578900366893</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1056101757.185635</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2307841040.588353</v>
+        <v>2243626428.292616</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1795076814330714</v>
+        <v>0.1296272255956046</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03613024196342127</v>
+        <v>0.03539737345221042</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
         <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1153920607.853793</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4381205146.377759</v>
+        <v>3240096680.254803</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1426777957702414</v>
+        <v>0.1528010664335463</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02397915196824063</v>
+        <v>0.03378433190395941</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2190602614.201036</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2668871380.463736</v>
+        <v>4078057944.862836</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09787125900708415</v>
+        <v>0.1034657086491637</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04498165847242595</v>
+        <v>0.03657799949571211</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>13</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1334435781.758123</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1915309679.023816</v>
+        <v>2719603015.239079</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1305257803526477</v>
+        <v>0.1046687933258855</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05554634263743554</v>
+        <v>0.05607383965635779</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>957654878.0919886</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2186563677.564843</v>
+        <v>1969656743.812004</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07250419197481282</v>
+        <v>0.0796042705030465</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0433259005995101</v>
+        <v>0.04356483914449129</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>10</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1093281881.817821</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2520879525.585547</v>
+        <v>3665266104.215093</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1700353761655469</v>
+        <v>0.2191042290484377</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03234946508681557</v>
+        <v>0.0266988582515959</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>11</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1260439771.17713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2167575211.575359</v>
+        <v>2143227115.684738</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1457716196249477</v>
+        <v>0.1394572191670337</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03133750530075121</v>
+        <v>0.03640502290096463</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1083787608.94283</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5120343144.101318</v>
+        <v>3741532686.178853</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2026117399252824</v>
+        <v>0.1843217072250945</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04684209382743584</v>
+        <v>0.04297365456205213</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>15</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2560171680.512187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3124580804.289866</v>
+        <v>3530633249.260019</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1910804797575045</v>
+        <v>0.1682203470188841</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03989017790138523</v>
+        <v>0.03682209762554536</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>15</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1562290353.590671</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2697248630.113081</v>
+        <v>3090732773.820574</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1911249829331214</v>
+        <v>0.1362046287576425</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04496847343090057</v>
+        <v>0.0443288483576853</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1348624305.167997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3433605969.512009</v>
+        <v>4523638854.219645</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07868003383634094</v>
+        <v>0.08424571933146299</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02613071203060012</v>
+        <v>0.02598262059833587</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>13</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1716803068.28166</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3829787147.072128</v>
+        <v>2439457582.22693</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1243199734553225</v>
+        <v>0.1492089643432585</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02885485264722267</v>
+        <v>0.02811538811159073</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>11</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1914893547.702179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1327099754.102737</v>
+        <v>1216687047.871941</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06890365215790996</v>
+        <v>0.09418546620280223</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04147563928947507</v>
+        <v>0.04738887302374501</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>663549923.1875505</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2377727361.223295</v>
+        <v>2649586948.465033</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09881568491455046</v>
+        <v>0.08406870554631969</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04600121121551453</v>
+        <v>0.03656393562945245</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1188863722.174635</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4965790752.445931</v>
+        <v>3429177652.510368</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1698439566189305</v>
+        <v>0.1154062527913857</v>
       </c>
       <c r="G17" t="n">
-        <v>0.040566545164431</v>
+        <v>0.04040802078597102</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>10</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2482895362.935153</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3885530759.3032</v>
+        <v>3804174155.912226</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1576147391219446</v>
+        <v>0.1240923811383153</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03233163008030875</v>
+        <v>0.02829693722392801</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>12</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1942765345.645959</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1362350109.146721</v>
+        <v>1101266755.592173</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1232044234630407</v>
+        <v>0.1326805534324778</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02234682491975107</v>
+        <v>0.02380355785251762</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>681175171.8365465</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2158851320.471405</v>
+        <v>2062417251.940209</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1214278852694147</v>
+        <v>0.1446941886046801</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02449071516401672</v>
+        <v>0.0200727251896996</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1079425669.495959</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2390819653.870087</v>
+        <v>2471450625.552621</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07551238676093307</v>
+        <v>0.06714341456609116</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03695503224804673</v>
+        <v>0.0431873239218276</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1195409825.361448</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2508248776.382109</v>
+        <v>3493808357.32807</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1318457983391058</v>
+        <v>0.1000012639834183</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05733158247998641</v>
+        <v>0.05650556554100296</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>10</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1254124479.002899</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1216909179.276906</v>
+        <v>1539336183.112217</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1487306960206718</v>
+        <v>0.1715056946896567</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04924847741105135</v>
+        <v>0.04128026579984735</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>608454623.1036085</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3651695879.462611</v>
+        <v>3006918515.507686</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1272257720469378</v>
+        <v>0.1141213924459282</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03228877230728096</v>
+        <v>0.03766915055221966</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>10</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1825847930.974193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1083840433.612802</v>
+        <v>1359918602.763671</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1209624073075477</v>
+        <v>0.09069166606984343</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02962187204390582</v>
+        <v>0.03064876055491447</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>541920261.3396217</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1364492429.632323</v>
+        <v>1449442150.811926</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08621711622007662</v>
+        <v>0.0781528709654022</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02947377468362685</v>
+        <v>0.02773800658195992</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>682246275.9735403</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3110635796.9409</v>
+        <v>3851035333.040914</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1285879528391499</v>
+        <v>0.121350019807534</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0245344648171415</v>
+        <v>0.0215021708656281</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>8</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1555317952.6414</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3581288899.331585</v>
+        <v>2957941627.749382</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1010323050147773</v>
+        <v>0.1182976692459815</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04985763116424594</v>
+        <v>0.03769756941801757</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>12</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1790644511.155141</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5474083281.964203</v>
+        <v>5870187334.639619</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09121640717622881</v>
+        <v>0.1212818475696894</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04523244116525928</v>
+        <v>0.04390907503122631</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>17</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2737041555.398267</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1478994860.115409</v>
+        <v>2294178749.624489</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1067575029179934</v>
+        <v>0.1345403597783049</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03409524479410211</v>
+        <v>0.03224909133619878</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>739497407.9897842</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1265197048.792512</v>
+        <v>1031233823.530656</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08954759050656069</v>
+        <v>0.09063953721804148</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04071508963571087</v>
+        <v>0.03874040246906463</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>632598460.3456782</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1377082774.42545</v>
+        <v>1840878480.550725</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09736840469686553</v>
+        <v>0.08407879761514227</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02495124955047469</v>
+        <v>0.03047276632535203</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>688541429.9388344</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1897807954.824534</v>
+        <v>2243761002.498291</v>
       </c>
       <c r="F33" t="n">
-        <v>0.19354127078571</v>
+        <v>0.136211520164923</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04546354063063986</v>
+        <v>0.05106826798199694</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>11</v>
-      </c>
-      <c r="J33" t="n">
-        <v>948904066.6991193</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1444290589.982713</v>
+        <v>1079494220.760169</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1172052237995759</v>
+        <v>0.09634828385953736</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02196524944274582</v>
+        <v>0.0224982864436033</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>722145259.7670575</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1117930321.947231</v>
+        <v>1260243210.280413</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1077551015692422</v>
+        <v>0.1156387586079358</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04396435355125269</v>
+        <v>0.03911996010395279</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>558965153.509842</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2444038199.11924</v>
+        <v>2854635088.131406</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1389651648217847</v>
+        <v>0.1562731857237592</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0285007263822666</v>
+        <v>0.02829691361691872</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1222019125.853507</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2711406709.077979</v>
+        <v>1946297918.102706</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08349533512188208</v>
+        <v>0.09377749184237764</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04054039119251446</v>
+        <v>0.03328923490559458</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>8</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1355703479.508896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1363439527.603321</v>
+        <v>2011377827.625252</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09165199053503682</v>
+        <v>0.1213620597939138</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03294927572404671</v>
+        <v>0.03958804055198301</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>681719832.1411467</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1339673589.08485</v>
+        <v>1401728919.493288</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1539534111379476</v>
+        <v>0.1386967772945656</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02084715900294334</v>
+        <v>0.02947521797066571</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>669836889.1035757</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1482841235.769612</v>
+        <v>1544514767.595237</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1188751069786384</v>
+        <v>0.1047905221526335</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05111325255838067</v>
+        <v>0.03899739879841516</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>741420588.2154117</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2509938674.807501</v>
+        <v>2743543086.846931</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1006446802279414</v>
+        <v>0.1210374680156794</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03399782947376472</v>
+        <v>0.04741489708262143</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>10</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1254969361.508783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3421045536.85921</v>
+        <v>2621545435.264516</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08853048438650295</v>
+        <v>0.09556232026828697</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04544915376636543</v>
+        <v>0.04167756446816933</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>12</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1710522757.648802</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2558955838.702039</v>
+        <v>1873994744.942612</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1896814396154139</v>
+        <v>0.1710872742207346</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01682260491460508</v>
+        <v>0.02349792154895915</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>11</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1279477961.896309</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2195113649.082941</v>
+        <v>1736033360.523571</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07666329318519532</v>
+        <v>0.06852260132226443</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02877498611023244</v>
+        <v>0.03524209863638818</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1097556969.634988</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2096849126.637045</v>
+        <v>1877267453.626411</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1635636351349285</v>
+        <v>0.1904468946127501</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0419266383420407</v>
+        <v>0.04173123481915847</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1048424563.787757</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3797989003.917824</v>
+        <v>3621016890.016448</v>
       </c>
       <c r="F46" t="n">
-        <v>0.119606450300537</v>
+        <v>0.1360545160037339</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05957499129415857</v>
+        <v>0.05592071354618572</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>13</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1898994459.77559</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4065218129.012373</v>
+        <v>4001120994.122709</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1670955308324628</v>
+        <v>0.1993984084319849</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04911979788884454</v>
+        <v>0.05622648823591532</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>10</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2032609067.149973</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4140575360.794825</v>
+        <v>3920705908.688032</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07458634639014318</v>
+        <v>0.0705883439340525</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02723913343966682</v>
+        <v>0.02507445118362198</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>12</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2070287706.43844</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1911274689.900927</v>
+        <v>1272065382.687829</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1962498299814153</v>
+        <v>0.1362909430000849</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04232101431736694</v>
+        <v>0.03042308146610083</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>955637312.7967689</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3517569311.311294</v>
+        <v>2909007633.61854</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1616023974557833</v>
+        <v>0.1099597760722116</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03528599274744703</v>
+        <v>0.03712429866068252</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>12</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1758784678.465461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1189659177.550906</v>
+        <v>1298336970.768477</v>
       </c>
       <c r="F51" t="n">
-        <v>0.153536485988443</v>
+        <v>0.1511885129644168</v>
       </c>
       <c r="G51" t="n">
-        <v>0.049011803346839</v>
+        <v>0.04411210764116121</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>594829641.8394488</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5005469376.874131</v>
+        <v>3340114325.719632</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1331655350863728</v>
+        <v>0.1391553533424247</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04245918046688271</v>
+        <v>0.05087896707112279</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>15</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2502734685.572829</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2442273917.42079</v>
+        <v>3124867512.377069</v>
       </c>
       <c r="F53" t="n">
-        <v>0.184011525170803</v>
+        <v>0.1518306725475576</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03030487435724195</v>
+        <v>0.02306680472490846</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>10</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1221137029.495611</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3447654607.468563</v>
+        <v>4629996209.329584</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1500926187802816</v>
+        <v>0.1120342157120562</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03604732654497448</v>
+        <v>0.04485484162297555</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>12</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1723827324.276201</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4315167422.151011</v>
+        <v>4189160989.441604</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1527246501360208</v>
+        <v>0.2217977563752216</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02579819118351217</v>
+        <v>0.02134305245266052</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>9</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2157583699.699612</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1801538821.40817</v>
+        <v>1551424178.436299</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1567374072225145</v>
+        <v>0.1520438196585925</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03613679383196493</v>
+        <v>0.05542154290441983</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>900769408.1600573</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4095670889.800284</v>
+        <v>2992304595.735949</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1389844517729137</v>
+        <v>0.1167108433738442</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02570239519796273</v>
+        <v>0.02000561243703012</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>11</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2047835541.136975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1901324898.663214</v>
+        <v>1845978796.027083</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1298345298179375</v>
+        <v>0.1886154729321286</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02530947000789976</v>
+        <v>0.0252717059127039</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>950662443.7103683</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4758356747.376398</v>
+        <v>3590579373.806398</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1146962013217833</v>
+        <v>0.0855082651372846</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04275887912781566</v>
+        <v>0.049115675038719</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>10</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2379178312.892627</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2330623997.69427</v>
+        <v>3473064858.938537</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1693408020227759</v>
+        <v>0.1938208227797012</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02443699365835668</v>
+        <v>0.02729424793543844</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>11</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1165311998.836916</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2287765944.125107</v>
+        <v>2343828807.433033</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1686333035308837</v>
+        <v>0.1648558438103991</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02894007274244311</v>
+        <v>0.02197416520968351</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>12</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1143883019.524159</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1443878840.851869</v>
+        <v>1872290440.127522</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1187767568219613</v>
+        <v>0.1649984638671649</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04230174681404838</v>
+        <v>0.04955741037487642</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>721939394.8655221</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4682402766.462275</v>
+        <v>4643623414.203435</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09018829441973708</v>
+        <v>0.07200504528133971</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03660152464168732</v>
+        <v>0.0354935697576871</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>10</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2341201414.970598</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3552614447.390428</v>
+        <v>4222735764.574769</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1367603778659083</v>
+        <v>0.1763976943526572</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02342231663834351</v>
+        <v>0.0261735166925493</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>11</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1776307227.911491</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4679857028.118013</v>
+        <v>5525238214.075318</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1158316031466143</v>
+        <v>0.171065262438438</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02994958931783098</v>
+        <v>0.02558870845304108</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>13</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2339928491.91681</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3444498109.595321</v>
+        <v>3535643648.790225</v>
       </c>
       <c r="F66" t="n">
-        <v>0.162958967443868</v>
+        <v>0.1187549091515507</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03400037745362759</v>
+        <v>0.0372710435645283</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>10</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1722248998.369126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2191451951.683144</v>
+        <v>3039747380.054614</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09539954662862406</v>
+        <v>0.09080849789568299</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03558415287484767</v>
+        <v>0.035943145707462</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>11</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1095726062.322529</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5812665749.487516</v>
+        <v>3701698830.439538</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1427551615814699</v>
+        <v>0.1443158217987419</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04546070671631704</v>
+        <v>0.03295467576809663</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>11</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2906332980.183442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1709251906.168608</v>
+        <v>1705775754.049418</v>
       </c>
       <c r="F69" t="n">
-        <v>0.172042363810115</v>
+        <v>0.165011674555281</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04860313188986645</v>
+        <v>0.0403379094778588</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>854625920.2459793</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3556451446.701022</v>
+        <v>2484228941.151013</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09808823403454042</v>
+        <v>0.07956060480716931</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03093614710488941</v>
+        <v>0.04247437606237348</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>10</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1778225736.369253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4031699930.588423</v>
+        <v>4130125172.154142</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1133013099375187</v>
+        <v>0.146741881592298</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02392976074840683</v>
+        <v>0.02794899318303694</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>13</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2015849998.546837</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2144774093.674193</v>
+        <v>1444672041.076496</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08051550033304694</v>
+        <v>0.08332864903575261</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03871979361172306</v>
+        <v>0.04640175912341751</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1072386969.642455</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3545223557.724282</v>
+        <v>2755420217.477693</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08138289714855479</v>
+        <v>0.07609532067125266</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03625822028141381</v>
+        <v>0.04760897174161597</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>14</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1772611724.765845</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2925899436.565364</v>
+        <v>2538674687.60058</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1276822845758083</v>
+        <v>0.1135108878833858</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0338710057732587</v>
+        <v>0.03079794345041435</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>12</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1462949789.918968</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1520477745.041451</v>
+        <v>2152640232.138466</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1372136927847635</v>
+        <v>0.1238374417871606</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02645223794540048</v>
+        <v>0.02520119668807121</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>760238881.5118586</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5060891360.670753</v>
+        <v>4626334283.749945</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0826793850369648</v>
+        <v>0.108070919119078</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03248822827329763</v>
+        <v>0.02361332990437932</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>8</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2530445709.342758</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1848394479.812205</v>
+        <v>2286335253.185621</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1262377466313339</v>
+        <v>0.168292369949324</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02380868833653346</v>
+        <v>0.02637960645155541</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>924197278.8652797</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4111655834.128797</v>
+        <v>3671136595.985229</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1335222412375003</v>
+        <v>0.135005046576111</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03723707631760551</v>
+        <v>0.05016602985633086</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>13</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2055827874.605871</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1893334636.510921</v>
+        <v>1808778891.499484</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1287779965378808</v>
+        <v>0.1544803208604026</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03232868658077392</v>
+        <v>0.03457378359097737</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>946667421.075738</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5226667530.696388</v>
+        <v>4147913415.220531</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1110226460507843</v>
+        <v>0.1023496040072551</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02510528270911744</v>
+        <v>0.03496338744103186</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>7</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2613333825.627961</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4218201822.272866</v>
+        <v>5170709555.292014</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08796826647264713</v>
+        <v>0.122612825517433</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02536536139090248</v>
+        <v>0.03075782810900521</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2109100882.279041</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5035533226.580269</v>
+        <v>4926068631.358633</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1644132928952737</v>
+        <v>0.1696831540744205</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01854106210609619</v>
+        <v>0.02378735875664964</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>13</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2517766595.099631</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2383004557.49916</v>
+        <v>1606185987.818716</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1333075186114089</v>
+        <v>0.1078211781908635</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04078952716529975</v>
+        <v>0.04240015390067692</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1191502311.575991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1678061152.583951</v>
+        <v>2529816640.069376</v>
       </c>
       <c r="F84" t="n">
-        <v>0.103927591840398</v>
+        <v>0.08798520830909154</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04149712414821598</v>
+        <v>0.03196286707907096</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>839030628.286388</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2359018528.471997</v>
+        <v>2618659035.272411</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1618329892415373</v>
+        <v>0.1418955169180841</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0405381735174791</v>
+        <v>0.05128774334150634</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>14</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1179509253.442404</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2425307760.187669</v>
+        <v>2470532597.381112</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1122757320547225</v>
+        <v>0.1115808184411474</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0254401870843899</v>
+        <v>0.01858773818230314</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1212653966.659882</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1318589054.644349</v>
+        <v>1361877323.436576</v>
       </c>
       <c r="F87" t="n">
-        <v>0.158758599846591</v>
+        <v>0.1725798740946635</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03981271514623552</v>
+        <v>0.0371714676901724</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>659294613.1265359</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2372553383.536062</v>
+        <v>2416105277.644534</v>
       </c>
       <c r="F88" t="n">
-        <v>0.12392942244656</v>
+        <v>0.1477883179539355</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02719233087426435</v>
+        <v>0.02717271296802536</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>14</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1186276660.023705</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3296926794.614679</v>
+        <v>2522566836.22881</v>
       </c>
       <c r="F89" t="n">
-        <v>0.130832151683586</v>
+        <v>0.09869787720030485</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03948302707151213</v>
+        <v>0.02814317314020515</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>12</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1648463413.455491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1390036595.559378</v>
+        <v>1736395985.685524</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09583413767631829</v>
+        <v>0.1196435668612354</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03897702788912426</v>
+        <v>0.04880256293845093</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>695018256.1630781</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1706100206.781786</v>
+        <v>2059976604.770039</v>
       </c>
       <c r="F91" t="n">
-        <v>0.152213630840868</v>
+        <v>0.123459663853528</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04510071593066864</v>
+        <v>0.04044196318952344</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>853050114.6553481</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2000582589.225648</v>
+        <v>2062162611.834033</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1081519047526958</v>
+        <v>0.08221425653732985</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03313324800132388</v>
+        <v>0.04665247106818374</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>10</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1000291240.617327</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4630299395.126237</v>
+        <v>4206750250.018844</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1111854773916524</v>
+        <v>0.1192272228278337</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05151326185898222</v>
+        <v>0.03391283685968474</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>11</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2315149657.265924</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2026155475.837893</v>
+        <v>2366909645.862518</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1633800757779517</v>
+        <v>0.1652113338878599</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03756158210887649</v>
+        <v>0.02767027888507032</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1013077739.493216</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3260577230.094882</v>
+        <v>2359734722.458488</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1081491627916416</v>
+        <v>0.1284344999024524</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04988674642646242</v>
+        <v>0.0384981361004549</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>8</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1630288595.672756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1607065296.061391</v>
+        <v>2046477937.253478</v>
       </c>
       <c r="F96" t="n">
-        <v>0.119272036114077</v>
+        <v>0.0961646240613958</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03006390793871139</v>
+        <v>0.02924697485872657</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>803532676.7750477</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4459680651.171115</v>
+        <v>4598360119.963466</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1077516636279443</v>
+        <v>0.1647763540500536</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02241689943823765</v>
+        <v>0.01974116274567596</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>11</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2229840418.7435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2460449977.313795</v>
+        <v>3153381011.326265</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0914882701605239</v>
+        <v>0.1169254031599814</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02718547861003283</v>
+        <v>0.03159276431523123</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>9</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1230224936.557108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3303535286.205485</v>
+        <v>2848133099.72313</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1332049576137566</v>
+        <v>0.1202562809867782</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02984115680212345</v>
+        <v>0.03110701212396731</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>11</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1651767650.934604</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3490085581.53974</v>
+        <v>3414880000.308625</v>
       </c>
       <c r="F100" t="n">
-        <v>0.122878917828948</v>
+        <v>0.1768641804536143</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0265045101693555</v>
+        <v>0.02524251204379926</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>11</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1745042820.546358</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3391345422.764696</v>
+        <v>2286082288.656701</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2110618219168562</v>
+        <v>0.1543268618050596</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04890275190719764</v>
+        <v>0.04823207907505403</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>15</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1695672851.975075</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_36.xlsx
+++ b/output/fit_clients/fit_round_36.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2334542157.270762</v>
+        <v>2021703009.288096</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08792309738499009</v>
+        <v>0.08217156676855555</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03911578900366893</v>
+        <v>0.03308956109566584</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2243626428.292616</v>
+        <v>2102708020.068816</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1296272255956046</v>
+        <v>0.175862945192344</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03539737345221042</v>
+        <v>0.047924008084073</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3240096680.254803</v>
+        <v>4102732763.695775</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1528010664335463</v>
+        <v>0.1539038295985219</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03378433190395941</v>
+        <v>0.02671925239930989</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4078057944.862836</v>
+        <v>3536125277.548619</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1034657086491637</v>
+        <v>0.1079776975489807</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03657799949571211</v>
+        <v>0.03847707022417752</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2719603015.239079</v>
+        <v>2766433117.765785</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1046687933258855</v>
+        <v>0.1000000356307099</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05607383965635779</v>
+        <v>0.0427207391132339</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1969656743.812004</v>
+        <v>2482202718.562785</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0796042705030465</v>
+        <v>0.08940251613278404</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04356483914449129</v>
+        <v>0.03541004037699653</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3665266104.215093</v>
+        <v>2505585747.164124</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2191042290484377</v>
+        <v>0.1461058351742558</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0266988582515959</v>
+        <v>0.02084453998461483</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2143227115.684738</v>
+        <v>2214816584.461262</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1394572191670337</v>
+        <v>0.1527336917234223</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03640502290096463</v>
+        <v>0.03197616032759632</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3741532686.178853</v>
+        <v>5100686013.234699</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1843217072250945</v>
+        <v>0.1361052916313811</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04297365456205213</v>
+        <v>0.04751281053345936</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3530633249.260019</v>
+        <v>3655115610.896907</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1682203470188841</v>
+        <v>0.1628170844506924</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03682209762554536</v>
+        <v>0.03265207512365195</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3090732773.820574</v>
+        <v>2290555794.298393</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1362046287576425</v>
+        <v>0.1357827439763372</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0443288483576853</v>
+        <v>0.05263885399103527</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4523638854.219645</v>
+        <v>3353822450.045541</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08424571933146299</v>
+        <v>0.07918745674538642</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02598262059833587</v>
+        <v>0.02573853953409897</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2439457582.22693</v>
+        <v>3651362277.714737</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1492089643432585</v>
+        <v>0.144394789520333</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02811538811159073</v>
+        <v>0.02788007482291834</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1216687047.871941</v>
+        <v>1115813263.234659</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09418546620280223</v>
+        <v>0.06579821925725295</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04738887302374501</v>
+        <v>0.03611968361433329</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2649586948.465033</v>
+        <v>2623751785.311445</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08406870554631969</v>
+        <v>0.1066541850537046</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03656393562945245</v>
+        <v>0.03605710895828679</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3429177652.510368</v>
+        <v>5232345172.871553</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1154062527913857</v>
+        <v>0.1418279955403737</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04040802078597102</v>
+        <v>0.0410621573821769</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3804174155.912226</v>
+        <v>2805486983.943912</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1240923811383153</v>
+        <v>0.137727025556497</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02829693722392801</v>
+        <v>0.02879654894248033</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1101266755.592173</v>
+        <v>937209301.0377328</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1326805534324778</v>
+        <v>0.1442544450166505</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02380355785251762</v>
+        <v>0.02270115827240037</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2062417251.940209</v>
+        <v>1690120128.364745</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1446941886046801</v>
+        <v>0.1087460438180225</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0200727251896996</v>
+        <v>0.02600234812789206</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2471450625.552621</v>
+        <v>2213672473.13859</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06714341456609116</v>
+        <v>0.07104937181293461</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0431873239218276</v>
+        <v>0.04102384420129161</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3493808357.32807</v>
+        <v>2671632753.992296</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1000012639834183</v>
+        <v>0.1186495088972419</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05650556554100296</v>
+        <v>0.04510806391953374</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1539336183.112217</v>
+        <v>1555728485.292854</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1715056946896567</v>
+        <v>0.1532748974494579</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04128026579984735</v>
+        <v>0.04677163752667064</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3006918515.507686</v>
+        <v>3402261484.055756</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1141213924459282</v>
+        <v>0.09728889535686241</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03766915055221966</v>
+        <v>0.02991041183412544</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1359918602.763671</v>
+        <v>1177134705.279775</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09069166606984343</v>
+        <v>0.08671133752953664</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03064876055491447</v>
+        <v>0.02003972526810526</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1449442150.811926</v>
+        <v>1227609690.08944</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0781528709654022</v>
+        <v>0.08945971484932469</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02773800658195992</v>
+        <v>0.02939505609509462</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3851035333.040914</v>
+        <v>3825637849.914916</v>
       </c>
       <c r="F27" t="n">
-        <v>0.121350019807534</v>
+        <v>0.1317191975550571</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0215021708656281</v>
+        <v>0.02506200435682568</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2957941627.749382</v>
+        <v>3294623478.476583</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1182976692459815</v>
+        <v>0.1275501877236748</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03769756941801757</v>
+        <v>0.03240354510739583</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5870187334.639619</v>
+        <v>5627604538.367262</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1212818475696894</v>
+        <v>0.09656343357331491</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04390907503122631</v>
+        <v>0.03529329216724307</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2294178749.624489</v>
+        <v>2056357716.312274</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1345403597783049</v>
+        <v>0.1012323437287611</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03224909133619878</v>
+        <v>0.03766012161599772</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1031233823.530656</v>
+        <v>1293071448.98037</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09063953721804148</v>
+        <v>0.08167597201176317</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03874040246906463</v>
+        <v>0.04631696029008477</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1840878480.550725</v>
+        <v>1613451150.994928</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08407879761514227</v>
+        <v>0.1049937442536566</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03047276632535203</v>
+        <v>0.02998520716448565</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2243761002.498291</v>
+        <v>2802360966.225304</v>
       </c>
       <c r="F33" t="n">
-        <v>0.136211520164923</v>
+        <v>0.1338216815146748</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05106826798199694</v>
+        <v>0.05364763043268083</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1079494220.760169</v>
+        <v>1156039377.557305</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09634828385953736</v>
+        <v>0.09847243430058954</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0224982864436033</v>
+        <v>0.01781954270073892</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1260243210.280413</v>
+        <v>1252752505.25744</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1156387586079358</v>
+        <v>0.07837159108139048</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03911996010395279</v>
+        <v>0.03228509006705918</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2854635088.131406</v>
+        <v>2841883808.958614</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1562731857237592</v>
+        <v>0.1350671033283178</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02829691361691872</v>
+        <v>0.02689058819361572</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1946297918.102706</v>
+        <v>2435444270.970318</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09377749184237764</v>
+        <v>0.1023700298304424</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03328923490559458</v>
+        <v>0.02603609980953068</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2011377827.625252</v>
+        <v>1750730480.427091</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1213620597939138</v>
+        <v>0.1191079122405227</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03958804055198301</v>
+        <v>0.0337753201697941</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1401728919.493288</v>
+        <v>1529334678.241725</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1386967772945656</v>
+        <v>0.1411598944200447</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02947521797066571</v>
+        <v>0.02438223915151115</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1544514767.595237</v>
+        <v>1345776729.964269</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1047905221526335</v>
+        <v>0.1222177702825811</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03899739879841516</v>
+        <v>0.05797410744482381</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2743543086.846931</v>
+        <v>2620399648.941525</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1210374680156794</v>
+        <v>0.1552130179974738</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04741489708262143</v>
+        <v>0.04424463347928837</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2621545435.264516</v>
+        <v>4068617388.580153</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09556232026828697</v>
+        <v>0.0783227491011376</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04167756446816933</v>
+        <v>0.02893754093734009</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1873994744.942612</v>
+        <v>2932029039.98017</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1710872742207346</v>
+        <v>0.1978353581131422</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02349792154895915</v>
+        <v>0.01845834772356951</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1736033360.523571</v>
+        <v>1989747383.863446</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06852260132226443</v>
+        <v>0.1028453972996111</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03524209863638818</v>
+        <v>0.02996945446002586</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1877267453.626411</v>
+        <v>2432739532.952231</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1904468946127501</v>
+        <v>0.1690571764118584</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04173123481915847</v>
+        <v>0.05199940180054774</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3621016890.016448</v>
+        <v>3886703525.928086</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1360545160037339</v>
+        <v>0.1323393005437408</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05592071354618572</v>
+        <v>0.04003973176445368</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4001120994.122709</v>
+        <v>4383232631.782136</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1993984084319849</v>
+        <v>0.1870332462441376</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05622648823591532</v>
+        <v>0.05411807852082068</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3920705908.688032</v>
+        <v>3839936792.848329</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0705883439340525</v>
+        <v>0.0868382483059698</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02507445118362198</v>
+        <v>0.02678288247662955</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1272065382.687829</v>
+        <v>1730992944.429056</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1362909430000849</v>
+        <v>0.175673167727464</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03042308146610083</v>
+        <v>0.03396468676836424</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2909007633.61854</v>
+        <v>4004421407.852405</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1099597760722116</v>
+        <v>0.1759031306132995</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03712429866068252</v>
+        <v>0.04695424888607577</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1298336970.768477</v>
+        <v>1471095998.435386</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1511885129644168</v>
+        <v>0.1718080080834355</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04411210764116121</v>
+        <v>0.04108349743598691</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3340114325.719632</v>
+        <v>3246413160.100814</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1391553533424247</v>
+        <v>0.09695406439544386</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05087896707112279</v>
+        <v>0.04263086601523067</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3124867512.377069</v>
+        <v>2437115561.647885</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1518306725475576</v>
+        <v>0.1720005494302921</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02306680472490846</v>
+        <v>0.02648332347941444</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4629996209.329584</v>
+        <v>4394319304.47933</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1120342157120562</v>
+        <v>0.125778083984132</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04485484162297555</v>
+        <v>0.04577390124914134</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4189160989.441604</v>
+        <v>3655851292.28758</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2217977563752216</v>
+        <v>0.1378397221401907</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02134305245266052</v>
+        <v>0.02381757597228077</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1551424178.436299</v>
+        <v>1637739050.554834</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1520438196585925</v>
+        <v>0.1242586297825582</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05542154290441983</v>
+        <v>0.05015176554759938</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2992304595.735949</v>
+        <v>3902478584.374613</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1167108433738442</v>
+        <v>0.1430681584602798</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02000561243703012</v>
+        <v>0.01899035453726062</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1845978796.027083</v>
+        <v>1751594538.342063</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1886154729321286</v>
+        <v>0.1232074397422662</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0252717059127039</v>
+        <v>0.03621633880895434</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3590579373.806398</v>
+        <v>4189679516.085909</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0855082651372846</v>
+        <v>0.1257338400718202</v>
       </c>
       <c r="G59" t="n">
-        <v>0.049115675038719</v>
+        <v>0.03730708686979883</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,16 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3473064858.938537</v>
+        <v>3694929651.710227</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1938208227797012</v>
+        <v>0.1678237954025897</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02729424793543844</v>
+        <v>0.02248515478162023</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2343828807.433033</v>
+        <v>2703880936.358931</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1648558438103991</v>
+        <v>0.162929301478955</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02197416520968351</v>
+        <v>0.0249706644805389</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1872290440.127522</v>
+        <v>2060500272.811967</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1649984638671649</v>
+        <v>0.1618370917459842</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04955741037487642</v>
+        <v>0.03571292401498362</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,13 +2194,13 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4643623414.203435</v>
+        <v>3704095984.924161</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07200504528133971</v>
+        <v>0.100548657211254</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0354935697576871</v>
+        <v>0.03501894541417525</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4222735764.574769</v>
+        <v>4831336823.030205</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1763976943526572</v>
+        <v>0.147271106517921</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0261735166925493</v>
+        <v>0.02910796186589255</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5525238214.075318</v>
+        <v>5213990439.915356</v>
       </c>
       <c r="F65" t="n">
-        <v>0.171065262438438</v>
+        <v>0.1562521898031292</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02558870845304108</v>
+        <v>0.0302648167899304</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3535643648.790225</v>
+        <v>5697598861.794157</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1187549091515507</v>
+        <v>0.1286951119831656</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0372710435645283</v>
+        <v>0.04662414450005906</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3039747380.054614</v>
+        <v>2196511564.862781</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09080849789568299</v>
+        <v>0.08178918662473579</v>
       </c>
       <c r="G67" t="n">
-        <v>0.035943145707462</v>
+        <v>0.03665989051694463</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3701698830.439538</v>
+        <v>4175889043.317697</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1443158217987419</v>
+        <v>0.1334012266340542</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03295467576809663</v>
+        <v>0.03750111797586361</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1705775754.049418</v>
+        <v>2371034152.527619</v>
       </c>
       <c r="F69" t="n">
-        <v>0.165011674555281</v>
+        <v>0.128917386835755</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0403379094778588</v>
+        <v>0.04902235209777564</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2484228941.151013</v>
+        <v>3223671039.617962</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07956060480716931</v>
+        <v>0.08494310966132902</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04247437606237348</v>
+        <v>0.03082273870286737</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4130125172.154142</v>
+        <v>3560518338.82537</v>
       </c>
       <c r="F71" t="n">
-        <v>0.146741881592298</v>
+        <v>0.171875261677712</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02794899318303694</v>
+        <v>0.0247705665858382</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1444672041.076496</v>
+        <v>1598815885.36413</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08332864903575261</v>
+        <v>0.0880313987269713</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04640175912341751</v>
+        <v>0.03516272972166139</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2755420217.477693</v>
+        <v>2454417659.701226</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07609532067125266</v>
+        <v>0.112377698361011</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04760897174161597</v>
+        <v>0.04174860449986402</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2538674687.60058</v>
+        <v>2614667218.552281</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1135108878833858</v>
+        <v>0.1583508471703656</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03079794345041435</v>
+        <v>0.023370968818043</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2152640232.138466</v>
+        <v>2433542149.440894</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1238374417871606</v>
+        <v>0.1491564487405287</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02520119668807121</v>
+        <v>0.03650309053515204</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4626334283.749945</v>
+        <v>4395588276.297342</v>
       </c>
       <c r="F76" t="n">
-        <v>0.108070919119078</v>
+        <v>0.09609774166511029</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02361332990437932</v>
+        <v>0.02384442111791346</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2286335253.185621</v>
+        <v>1508306633.087226</v>
       </c>
       <c r="F77" t="n">
-        <v>0.168292369949324</v>
+        <v>0.1471759279945245</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02637960645155541</v>
+        <v>0.02550994127486562</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3671136595.985229</v>
+        <v>3311031875.751505</v>
       </c>
       <c r="F78" t="n">
-        <v>0.135005046576111</v>
+        <v>0.08367482489504377</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05016602985633086</v>
+        <v>0.03878339205521442</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1808778891.499484</v>
+        <v>1174007984.499066</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1544803208604026</v>
+        <v>0.1176684529241937</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03457378359097737</v>
+        <v>0.02868454804547122</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4147913415.220531</v>
+        <v>5038345748.91819</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1023496040072551</v>
+        <v>0.09528124183140996</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03496338744103186</v>
+        <v>0.03251280076149409</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2698,16 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5170709555.292014</v>
+        <v>4600994006.417237</v>
       </c>
       <c r="F81" t="n">
-        <v>0.122612825517433</v>
+        <v>0.08821247082011072</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03075782810900521</v>
+        <v>0.02919739894835194</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4926068631.358633</v>
+        <v>3997883598.813538</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1696831540744205</v>
+        <v>0.211774537360122</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02378735875664964</v>
+        <v>0.02229180022436879</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1606185987.818716</v>
+        <v>2030481028.659553</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1078211781908635</v>
+        <v>0.1003543628185364</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04240015390067692</v>
+        <v>0.04004196222370403</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2529816640.069376</v>
+        <v>1928635389.28314</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08798520830909154</v>
+        <v>0.1026743324780454</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03196286707907096</v>
+        <v>0.03296692517202988</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2618659035.272411</v>
+        <v>3443713261.696948</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1418955169180841</v>
+        <v>0.143385912310208</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05128774334150634</v>
+        <v>0.03465124317708763</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2470532597.381112</v>
+        <v>2657815155.019479</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1115808184411474</v>
+        <v>0.166290268856529</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01858773818230314</v>
+        <v>0.0195216417157455</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1361877323.436576</v>
+        <v>952614489.3745062</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1725798740946635</v>
+        <v>0.1507817548543398</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0371714676901724</v>
+        <v>0.03959257517480435</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2416105277.644534</v>
+        <v>2843045913.95449</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1477883179539355</v>
+        <v>0.1083105525209595</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02717271296802536</v>
+        <v>0.03527186875856687</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2522566836.22881</v>
+        <v>2861048972.224702</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09869787720030485</v>
+        <v>0.157967093414125</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02814317314020515</v>
+        <v>0.03415012554702842</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1736395985.685524</v>
+        <v>1477535546.663199</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1196435668612354</v>
+        <v>0.08665946119973117</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04880256293845093</v>
+        <v>0.05087120265566904</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2059976604.770039</v>
+        <v>1403350682.581909</v>
       </c>
       <c r="F91" t="n">
-        <v>0.123459663853528</v>
+        <v>0.1209649101818308</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04044196318952344</v>
+        <v>0.05094063064720473</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2062162611.834033</v>
+        <v>2550112190.810858</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08221425653732985</v>
+        <v>0.07142585789322653</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04665247106818374</v>
+        <v>0.03002147592302082</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4206750250.018844</v>
+        <v>3162299871.853215</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1192272228278337</v>
+        <v>0.08713297561342258</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03391283685968474</v>
+        <v>0.03425531434829888</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2366909645.862518</v>
+        <v>2235480578.384282</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1652113338878599</v>
+        <v>0.1150955091682865</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02767027888507032</v>
+        <v>0.04174402781864688</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2359734722.458488</v>
+        <v>2966266209.689275</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1284344999024524</v>
+        <v>0.08753604901265651</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0384981361004549</v>
+        <v>0.04262831593530112</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2046477937.253478</v>
+        <v>2090958250.430823</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0961646240613958</v>
+        <v>0.1204273314289384</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02924697485872657</v>
+        <v>0.04520142067659269</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4598360119.963466</v>
+        <v>5187907541.920382</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1647763540500536</v>
+        <v>0.1302156267759111</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01974116274567596</v>
+        <v>0.02436574113115083</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3153381011.326265</v>
+        <v>2744292794.784202</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1169254031599814</v>
+        <v>0.1097105197995102</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03159276431523123</v>
+        <v>0.02667271964868773</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2848133099.72313</v>
+        <v>2200362574.961726</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1202562809867782</v>
+        <v>0.1364744266009332</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03110701212396731</v>
+        <v>0.02700771957608391</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3414880000.308625</v>
+        <v>3952144153.987126</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1768641804536143</v>
+        <v>0.1531159421205092</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02524251204379926</v>
+        <v>0.02661130404727594</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2286082288.656701</v>
+        <v>3171925859.959015</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1543268618050596</v>
+        <v>0.1569007333384335</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04823207907505403</v>
+        <v>0.05434794916280113</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_36.xlsx
+++ b/output/fit_clients/fit_round_36.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2021703009.288096</v>
+        <v>2063266791.227157</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08217156676855555</v>
+        <v>0.09505436102253176</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03308956109566584</v>
+        <v>0.03039699797213886</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2102708020.068816</v>
+        <v>2643488317.944573</v>
       </c>
       <c r="F3" t="n">
-        <v>0.175862945192344</v>
+        <v>0.1147245524987852</v>
       </c>
       <c r="G3" t="n">
-        <v>0.047924008084073</v>
+        <v>0.03375434367323617</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4102732763.695775</v>
+        <v>4886942611.049949</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1539038295985219</v>
+        <v>0.1095491788538059</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02671925239930989</v>
+        <v>0.03306924037052116</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>36</v>
+      </c>
+      <c r="K4" t="n">
+        <v>215.3925198627601</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3536125277.548619</v>
+        <v>2643282154.107422</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1079776975489807</v>
+        <v>0.08908541041341005</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03847707022417752</v>
+        <v>0.03584250971232439</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>17</v>
+      </c>
+      <c r="J5" t="n">
+        <v>32</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2766433117.765785</v>
+        <v>2399150306.508394</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1000000356307099</v>
+        <v>0.1332493122487679</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0427207391132339</v>
+        <v>0.04956609551911879</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2482202718.562785</v>
+        <v>2054145324.459232</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08940251613278404</v>
+        <v>0.07664820077880165</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03541004037699653</v>
+        <v>0.0336301336799947</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2505585747.164124</v>
+        <v>3096982776.802331</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1461058351742558</v>
+        <v>0.1973177528002939</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02084453998461483</v>
+        <v>0.03143936461814879</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>29</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2214816584.461262</v>
+        <v>2246901968.777856</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1527336917234223</v>
+        <v>0.1861172710018937</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03197616032759632</v>
+        <v>0.02621201897664081</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +783,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5100686013.234699</v>
+        <v>3948914299.03268</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1361052916313811</v>
+        <v>0.2164333340024045</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04751281053345936</v>
+        <v>0.03450700403675369</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>33</v>
+      </c>
+      <c r="J10" t="n">
+        <v>36</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3655115610.896907</v>
+        <v>3323635217.495389</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1628170844506924</v>
+        <v>0.1324646347067338</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03265207512365195</v>
+        <v>0.04922617171348382</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>17</v>
+      </c>
+      <c r="J11" t="n">
+        <v>35</v>
+      </c>
+      <c r="K11" t="n">
+        <v>169.8722121960016</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2290555794.298393</v>
+        <v>2570058322.599584</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1357827439763372</v>
+        <v>0.1331938552301846</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05263885399103527</v>
+        <v>0.03844947556856556</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3353822450.045541</v>
+        <v>4150015068.582379</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07918745674538642</v>
+        <v>0.09699154436258325</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02573853953409897</v>
+        <v>0.01986728709239164</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>17</v>
+      </c>
+      <c r="J13" t="n">
+        <v>35</v>
+      </c>
+      <c r="K13" t="n">
+        <v>211.6276702501288</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3651362277.714737</v>
+        <v>3863964143.949118</v>
       </c>
       <c r="F14" t="n">
-        <v>0.144394789520333</v>
+        <v>0.1202647904940656</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02788007482291834</v>
+        <v>0.02878291780519406</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>36</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1115813263.234659</v>
+        <v>1613771313.246114</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06579821925725295</v>
+        <v>0.1094590387829857</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03611968361433329</v>
+        <v>0.04118601482061301</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2623751785.311445</v>
+        <v>2343437728.676946</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1066541850537046</v>
+        <v>0.08462980394405777</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03605710895828679</v>
+        <v>0.04675586682980416</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5232345172.871553</v>
+        <v>4898359959.871303</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1418279955403737</v>
+        <v>0.1406688032627345</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0410621573821769</v>
+        <v>0.03544383488326777</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>17</v>
+      </c>
+      <c r="J17" t="n">
+        <v>36</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1067,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2805486983.943912</v>
+        <v>2441551128.474676</v>
       </c>
       <c r="F18" t="n">
-        <v>0.137727025556497</v>
+        <v>0.1649701206761645</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02879654894248033</v>
+        <v>0.03449542753162085</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>24</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1102,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>937209301.0377328</v>
+        <v>1128389335.428844</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1442544450166505</v>
+        <v>0.1317018434072388</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02270115827240037</v>
+        <v>0.02419567062095067</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1690120128.364745</v>
+        <v>2307942557.089787</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1087460438180225</v>
+        <v>0.1573366153977948</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02600234812789206</v>
+        <v>0.02758345460054077</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2213672473.13859</v>
+        <v>1808139237.00652</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07104937181293461</v>
+        <v>0.09514445045845445</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04102384420129161</v>
+        <v>0.04594211364347909</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1207,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2671632753.992296</v>
+        <v>2759423516.08385</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1186495088972419</v>
+        <v>0.1384542302970768</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04510806391953374</v>
+        <v>0.03783932929353549</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>10</v>
+      </c>
+      <c r="J22" t="n">
+        <v>34</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1555728485.292854</v>
+        <v>1106124013.076227</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1532748974494579</v>
+        <v>0.1172186874789923</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04677163752667064</v>
+        <v>0.03340161542400311</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3402261484.055756</v>
+        <v>2558390422.843777</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09728889535686241</v>
+        <v>0.1298028206881096</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02991041183412544</v>
+        <v>0.03055594279181961</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>30</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1177134705.279775</v>
+        <v>1004649274.122797</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08671133752953664</v>
+        <v>0.08879627569580903</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02003972526810526</v>
+        <v>0.0245348505739948</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1227609690.08944</v>
+        <v>1044247131.732436</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08945971484932469</v>
+        <v>0.1011257608993714</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02939505609509462</v>
+        <v>0.02586269546602292</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1382,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3825637849.914916</v>
+        <v>4256832875.211185</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1317191975550571</v>
+        <v>0.1153456060426205</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02506200435682568</v>
+        <v>0.02341167385546648</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>14</v>
+      </c>
+      <c r="J27" t="n">
+        <v>36</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1411,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3294623478.476583</v>
+        <v>3822332126.052629</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1275501877236748</v>
+        <v>0.1170122452063561</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03240354510739583</v>
+        <v>0.04627766469836436</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>9</v>
+      </c>
+      <c r="J28" t="n">
+        <v>36</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1446,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5627604538.367262</v>
+        <v>5403845991.59938</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09656343357331491</v>
+        <v>0.09441409747258953</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03529329216724307</v>
+        <v>0.03196827012169394</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>32</v>
+      </c>
+      <c r="J29" t="n">
+        <v>36</v>
+      </c>
+      <c r="K29" t="n">
+        <v>241.6617508901016</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2056357716.312274</v>
+        <v>1752790551.857507</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1012323437287611</v>
+        <v>0.1218675593618871</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03766012161599772</v>
+        <v>0.03768356746371315</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1293071448.98037</v>
+        <v>1211212065.808488</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08167597201176317</v>
+        <v>0.1006803543656129</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04631696029008477</v>
+        <v>0.04812375214733628</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1613451150.994928</v>
+        <v>1574181449.726081</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1049937442536566</v>
+        <v>0.1047658595400762</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02998520716448565</v>
+        <v>0.02531465631776888</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2802360966.225304</v>
+        <v>2820396699.480564</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1338216815146748</v>
+        <v>0.1765995635061265</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05364763043268083</v>
+        <v>0.0394519981171027</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1629,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1156039377.557305</v>
+        <v>1270271936.083997</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09847243430058954</v>
+        <v>0.1107134284516499</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01781954270073892</v>
+        <v>0.02708670408822391</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1664,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1252752505.25744</v>
+        <v>1349190162.656052</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07837159108139048</v>
+        <v>0.07962806182241297</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03228509006705918</v>
+        <v>0.0441747270841304</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1699,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2841883808.958614</v>
+        <v>2240139298.292298</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1350671033283178</v>
+        <v>0.1157523812881307</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02689058819361572</v>
+        <v>0.02137776859433223</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2435444270.970318</v>
+        <v>2051115497.078353</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1023700298304424</v>
+        <v>0.06979672481114413</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02603609980953068</v>
+        <v>0.03218514119876055</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1763,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1750730480.427091</v>
+        <v>1971029079.147896</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1191079122405227</v>
+        <v>0.07669029745115236</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0337753201697941</v>
+        <v>0.0321915713887938</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1529334678.241725</v>
+        <v>1832782565.334864</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1411598944200447</v>
+        <v>0.1266454290758347</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02438223915151115</v>
+        <v>0.02608702250512622</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1839,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1345776729.964269</v>
+        <v>1406567586.668375</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1222177702825811</v>
+        <v>0.1067055080299742</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05797410744482381</v>
+        <v>0.05463914019633499</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2620399648.941525</v>
+        <v>2688279437.085423</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1552130179974738</v>
+        <v>0.1221094920375155</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04424463347928837</v>
+        <v>0.03322094036310246</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1909,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4068617388.580153</v>
+        <v>2866568247.079289</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0783227491011376</v>
+        <v>0.1062563950793549</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02893754093734009</v>
+        <v>0.02861232768434989</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>12</v>
+      </c>
+      <c r="J42" t="n">
+        <v>34</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2932029039.98017</v>
+        <v>2418194066.878221</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1978353581131422</v>
+        <v>0.1346145237811848</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01845834772356951</v>
+        <v>0.02025260827517572</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1979,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1989747383.863446</v>
+        <v>2087208418.837431</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1028453972996111</v>
+        <v>0.1020856706317317</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02996945446002586</v>
+        <v>0.02651553683869866</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2432739532.952231</v>
+        <v>1892363375.640071</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1690571764118584</v>
+        <v>0.1209807054351378</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05199940180054774</v>
+        <v>0.05593687239832702</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2043,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3886703525.928086</v>
+        <v>3828074669.343451</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1323393005437408</v>
+        <v>0.1646740895801489</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04003973176445368</v>
+        <v>0.03741025666976969</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>22</v>
+      </c>
+      <c r="J46" t="n">
+        <v>35</v>
+      </c>
+      <c r="K46" t="n">
+        <v>209.9740246303194</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2080,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4383232631.782136</v>
+        <v>4508262133.59924</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1870332462441376</v>
+        <v>0.1830433901830935</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05411807852082068</v>
+        <v>0.05232083850163733</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>15</v>
+      </c>
+      <c r="J47" t="n">
+        <v>36</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2115,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3839936792.848329</v>
+        <v>3071138240.969876</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0868382483059698</v>
+        <v>0.08886734269137535</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02678288247662955</v>
+        <v>0.02833032234721882</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>12</v>
+      </c>
+      <c r="J48" t="n">
+        <v>35</v>
+      </c>
+      <c r="K48" t="n">
+        <v>132.302278171899</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1730992944.429056</v>
+        <v>1816150496.091688</v>
       </c>
       <c r="F49" t="n">
-        <v>0.175673167727464</v>
+        <v>0.1383180654484605</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03396468676836424</v>
+        <v>0.04169548590872824</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4004421407.852405</v>
+        <v>3778339966.692811</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1759031306132995</v>
+        <v>0.1348368065783441</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04695424888607577</v>
+        <v>0.04286343176292248</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>13</v>
+      </c>
+      <c r="J50" t="n">
+        <v>36</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1471095998.435386</v>
+        <v>1501770319.555116</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1718080080834355</v>
+        <v>0.1589615794032344</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04108349743598691</v>
+        <v>0.04886914464095591</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2257,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3246413160.100814</v>
+        <v>3867149875.323615</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09695406439544386</v>
+        <v>0.1082260186419913</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04263086601523067</v>
+        <v>0.05519778956021456</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>28</v>
+      </c>
+      <c r="J52" t="n">
+        <v>36</v>
+      </c>
+      <c r="K52" t="n">
+        <v>229.8487630774987</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2437115561.647885</v>
+        <v>3307357090.655998</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1720005494302921</v>
+        <v>0.172840026446044</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02648332347941444</v>
+        <v>0.02391721140274977</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>5</v>
+      </c>
+      <c r="J53" t="n">
+        <v>36</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2329,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4394319304.47933</v>
+        <v>4937088505.228469</v>
       </c>
       <c r="F54" t="n">
-        <v>0.125778083984132</v>
+        <v>0.1267666967406886</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04577390124914134</v>
+        <v>0.04798678077579339</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>15</v>
+      </c>
+      <c r="J54" t="n">
+        <v>36</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2364,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3655851292.28758</v>
+        <v>4794981370.477241</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1378397221401907</v>
+        <v>0.1966770285861695</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02381757597228077</v>
+        <v>0.03138298066161094</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>17</v>
+      </c>
+      <c r="J55" t="n">
+        <v>35</v>
+      </c>
+      <c r="K55" t="n">
+        <v>184.2076171667888</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1637739050.554834</v>
+        <v>1662718118.098537</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1242586297825582</v>
+        <v>0.15015653693213</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05015176554759938</v>
+        <v>0.03895542635865474</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2436,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3902478584.374613</v>
+        <v>2768908976.836322</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1430681584602798</v>
+        <v>0.142565140251681</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01899035453726062</v>
+        <v>0.01761478114752404</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>14</v>
+      </c>
+      <c r="J57" t="n">
+        <v>35</v>
+      </c>
+      <c r="K57" t="n">
+        <v>103.18662882115</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1751594538.342063</v>
+        <v>1438608383.892246</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1232074397422662</v>
+        <v>0.175027175140525</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03621633880895434</v>
+        <v>0.03037089104796583</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4189679516.085909</v>
+        <v>3774825315.382544</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1257338400718202</v>
+        <v>0.1186346725575863</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03730708686979883</v>
+        <v>0.03388815589431638</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>17</v>
+      </c>
+      <c r="J59" t="n">
+        <v>35</v>
+      </c>
+      <c r="K59" t="n">
+        <v>177.6752081322702</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3694929651.710227</v>
+        <v>2888372924.242039</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1678237954025897</v>
+        <v>0.1366631996810957</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02248515478162023</v>
+        <v>0.02779556200697454</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>30</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2586,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2703880936.358931</v>
+        <v>2756475324.442567</v>
       </c>
       <c r="F61" t="n">
-        <v>0.162929301478955</v>
+        <v>0.1283519924366865</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0249706644805389</v>
+        <v>0.02798720094155208</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2060500272.811967</v>
+        <v>1547419087.357953</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1618370917459842</v>
+        <v>0.140375575034696</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03571292401498362</v>
+        <v>0.03995776225038813</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3704095984.924161</v>
+        <v>3759309885.033599</v>
       </c>
       <c r="F63" t="n">
-        <v>0.100548657211254</v>
+        <v>0.0862016453579543</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03501894541417525</v>
+        <v>0.03398618689289183</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>17</v>
+      </c>
+      <c r="J63" t="n">
+        <v>36</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2685,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4831336823.030205</v>
+        <v>3850612831.90485</v>
       </c>
       <c r="F64" t="n">
-        <v>0.147271106517921</v>
+        <v>0.1859069707185981</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02910796186589255</v>
+        <v>0.02623356900167803</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>18</v>
+      </c>
+      <c r="J64" t="n">
+        <v>35</v>
+      </c>
+      <c r="K64" t="n">
+        <v>198.9417029210702</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5213990439.915356</v>
+        <v>4903882848.186762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1562521898031292</v>
+        <v>0.1284370267562421</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0302648167899304</v>
+        <v>0.02829780656938824</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>29</v>
+      </c>
+      <c r="J65" t="n">
+        <v>36</v>
+      </c>
+      <c r="K65" t="n">
+        <v>214.8465846378457</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2765,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5697598861.794157</v>
+        <v>4165850063.768454</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1286951119831656</v>
+        <v>0.1628689585129531</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04662414450005906</v>
+        <v>0.04657864936764725</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>18</v>
+      </c>
+      <c r="J66" t="n">
+        <v>35</v>
+      </c>
+      <c r="K66" t="n">
+        <v>197.0430531346579</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2196511564.862781</v>
+        <v>3044827292.772273</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08178918662473579</v>
+        <v>0.06689316910411106</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03665989051694463</v>
+        <v>0.0439752221738317</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2837,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4175889043.317697</v>
+        <v>5878699256.520778</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1334012266340542</v>
+        <v>0.138970502232474</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03750111797586361</v>
+        <v>0.05106811650129881</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>18</v>
+      </c>
+      <c r="J68" t="n">
+        <v>35</v>
+      </c>
+      <c r="K68" t="n">
+        <v>201.7953063347838</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2371034152.527619</v>
+        <v>1571393032.713731</v>
       </c>
       <c r="F69" t="n">
-        <v>0.128917386835755</v>
+        <v>0.1178871294312595</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04902235209777564</v>
+        <v>0.05700491541136666</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2903,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3223671039.617962</v>
+        <v>3338861002.037495</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08494310966132902</v>
+        <v>0.07571281811613051</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03082273870286737</v>
+        <v>0.03172461619315366</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>4</v>
+      </c>
+      <c r="J70" t="n">
+        <v>35</v>
+      </c>
+      <c r="K70" t="n">
+        <v>146.470956323608</v>
       </c>
     </row>
     <row r="71">
@@ -2418,16 +2946,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3560518338.82537</v>
+        <v>5380819003.927032</v>
       </c>
       <c r="F71" t="n">
-        <v>0.171875261677712</v>
+        <v>0.1778086436777892</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0247705665858382</v>
+        <v>0.02161405548683697</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>30</v>
+      </c>
+      <c r="J71" t="n">
+        <v>36</v>
+      </c>
+      <c r="K71" t="n">
+        <v>215.8642663827003</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1598815885.36413</v>
+        <v>1465351711.007555</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0880313987269713</v>
+        <v>0.07314587223760101</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03516272972166139</v>
+        <v>0.03362602324917312</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2454417659.701226</v>
+        <v>2643698701.267029</v>
       </c>
       <c r="F73" t="n">
-        <v>0.112377698361011</v>
+        <v>0.08042308714386186</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04174860449986402</v>
+        <v>0.0408165400295542</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>30</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3053,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2614667218.552281</v>
+        <v>2701884117.143507</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1583508471703656</v>
+        <v>0.118005388004033</v>
       </c>
       <c r="G74" t="n">
-        <v>0.023370968818043</v>
+        <v>0.02990196067638336</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>10</v>
+      </c>
+      <c r="J74" t="n">
+        <v>33</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3088,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2433542149.440894</v>
+        <v>1807736095.308613</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1491564487405287</v>
+        <v>0.1572402724223068</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03650309053515204</v>
+        <v>0.0349880516764467</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4395588276.297342</v>
+        <v>4096158945.985618</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09609774166511029</v>
+        <v>0.08327557220250101</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02384442111791346</v>
+        <v>0.02530398943938984</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>17</v>
+      </c>
+      <c r="J76" t="n">
+        <v>35</v>
+      </c>
+      <c r="K76" t="n">
+        <v>170.3406126260468</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3160,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1508306633.087226</v>
+        <v>2012817389.120753</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1471759279945245</v>
+        <v>0.139466278995651</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02550994127486562</v>
+        <v>0.02794105422401805</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3189,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3311031875.751505</v>
+        <v>3374093871.624591</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08367482489504377</v>
+        <v>0.1001435313431763</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03878339205521442</v>
+        <v>0.04276709885223674</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>15</v>
+      </c>
+      <c r="J78" t="n">
+        <v>35</v>
+      </c>
+      <c r="K78" t="n">
+        <v>162.3619442119897</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1174007984.499066</v>
+        <v>1724890792.489155</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1176684529241937</v>
+        <v>0.1432945587239679</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02868454804547122</v>
+        <v>0.04027878849149563</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3261,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5038345748.91819</v>
+        <v>5262927207.795629</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09528124183140996</v>
+        <v>0.09783296129685956</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03251280076149409</v>
+        <v>0.0349505694849601</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>17</v>
+      </c>
+      <c r="J80" t="n">
+        <v>36</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4600994006.417237</v>
+        <v>3957466850.848937</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08821247082011072</v>
+        <v>0.1189573723390512</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02919739894835194</v>
+        <v>0.02415380618300993</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>15</v>
+      </c>
+      <c r="J81" t="n">
+        <v>36</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3997883598.813538</v>
+        <v>4211515322.030192</v>
       </c>
       <c r="F82" t="n">
-        <v>0.211774537360122</v>
+        <v>0.2161204310355914</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02229180022436879</v>
+        <v>0.02767945382930573</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>19</v>
+      </c>
+      <c r="J82" t="n">
+        <v>36</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2030481028.659553</v>
+        <v>2294997513.127182</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1003543628185364</v>
+        <v>0.1144873702500415</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04004196222370403</v>
+        <v>0.03672790516131336</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1928635389.28314</v>
+        <v>2096999871.53508</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1026743324780454</v>
+        <v>0.1031603102212513</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03296692517202988</v>
+        <v>0.04755991603105808</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3443713261.696948</v>
+        <v>2448393167.445204</v>
       </c>
       <c r="F85" t="n">
-        <v>0.143385912310208</v>
+        <v>0.1516895732490979</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03465124317708763</v>
+        <v>0.05021706827834636</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>6</v>
+      </c>
+      <c r="J85" t="n">
+        <v>31</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2657815155.019479</v>
+        <v>2160675111.548581</v>
       </c>
       <c r="F86" t="n">
-        <v>0.166290268856529</v>
+        <v>0.1585225667579202</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0195216417157455</v>
+        <v>0.01691028450742673</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>952614489.3745062</v>
+        <v>1330540750.303962</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1507817548543398</v>
+        <v>0.1529755624744418</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03959257517480435</v>
+        <v>0.02774089018843771</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2843045913.95449</v>
+        <v>2583434655.644045</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1083105525209595</v>
+        <v>0.1453121150422123</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03527186875856687</v>
+        <v>0.02795495541831013</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>25</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2861048972.224702</v>
+        <v>2486802431.822841</v>
       </c>
       <c r="F89" t="n">
-        <v>0.157967093414125</v>
+        <v>0.1410771447107801</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03415012554702842</v>
+        <v>0.0259631979830798</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>4</v>
+      </c>
+      <c r="J89" t="n">
+        <v>32</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1477535546.663199</v>
+        <v>1801503249.270991</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08665946119973117</v>
+        <v>0.1162105388610829</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05087120265566904</v>
+        <v>0.04530214043316752</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1403350682.581909</v>
+        <v>2092152149.886775</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1209649101818308</v>
+        <v>0.1563057330517748</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05094063064720473</v>
+        <v>0.05256663047693303</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2550112190.810858</v>
+        <v>2382585338.093228</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07142585789322653</v>
+        <v>0.07626009337241324</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03002147592302082</v>
+        <v>0.03128957519053462</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3722,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3162299871.853215</v>
+        <v>4597196995.783858</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08713297561342258</v>
+        <v>0.1188282992029581</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03425531434829888</v>
+        <v>0.03598320193645568</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>16</v>
+      </c>
+      <c r="J93" t="n">
+        <v>35</v>
+      </c>
+      <c r="K93" t="n">
+        <v>197.8702219213683</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2235480578.384282</v>
+        <v>2033255666.414996</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1150955091682865</v>
+        <v>0.1268816510199844</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04174402781864688</v>
+        <v>0.03156813394902056</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2966266209.689275</v>
+        <v>2438086057.112497</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08753604901265651</v>
+        <v>0.1054999554261495</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04262831593530112</v>
+        <v>0.04977100326993341</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2090958250.430823</v>
+        <v>1723938673.751151</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1204273314289384</v>
+        <v>0.09414076855280276</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04520142067659269</v>
+        <v>0.0331982728454594</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5187907541.920382</v>
+        <v>4558070268.702404</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1302156267759111</v>
+        <v>0.1398019094014113</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02436574113115083</v>
+        <v>0.02469066905321544</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>17</v>
+      </c>
+      <c r="J97" t="n">
+        <v>36</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2744292794.784202</v>
+        <v>3136111260.806129</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1097105197995102</v>
+        <v>0.1207188458390673</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02667271964868773</v>
+        <v>0.02478174683420527</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>9</v>
+      </c>
+      <c r="J98" t="n">
+        <v>34</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2200362574.961726</v>
+        <v>2816600752.933939</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1364744266009332</v>
+        <v>0.1058571266591998</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02700771957608391</v>
+        <v>0.02577344047389651</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3963,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3952144153.987126</v>
+        <v>4533628845.467242</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1531159421205092</v>
+        <v>0.1093956548323149</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02661130404727594</v>
+        <v>0.02460332288683432</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>16</v>
+      </c>
+      <c r="J100" t="n">
+        <v>36</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3171925859.959015</v>
+        <v>3529647551.046181</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1569007333384335</v>
+        <v>0.1770699634479253</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05434794916280113</v>
+        <v>0.0356472412087625</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>35</v>
+      </c>
+      <c r="K101" t="n">
+        <v>199.8577112955226</v>
       </c>
     </row>
   </sheetData>
